--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t xml:space="preserve">Erreurs listées à corriger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noms de certains fichiers invalides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certains fichiers ne sont pas nommés correctement (bootstrap.js etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renommer les fichiers, ou modifier les balises en html pour qu’ils correspondent</t>
   </si>
 </sst>
 </file>
@@ -305,7 +317,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,7 +339,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEDCE6"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -351,7 +363,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF729FCF"/>
-        <bgColor rgb="FF5983B0"/>
+        <bgColor rgb="FF81ACA6"/>
       </patternFill>
     </fill>
     <fill>
@@ -360,8 +372,20 @@
         <bgColor rgb="FFF7D1D5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81ACA6"/>
+        <bgColor rgb="FF729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDEDCE6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -371,27 +395,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -496,15 +499,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,7 +560,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -570,7 +573,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF5983B0"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF81ACA6"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -591,8 +594,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -929,7 +932,7 @@
       <c r="F17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -950,27 +953,37 @@
       <c r="A19" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -112,6 +112,9 @@
     <t xml:space="preserve">Remplacer les liens par ceux correspondant à chaque réseaux</t>
   </si>
   <si>
+    <t xml:space="preserve">Corrigé</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liste des partenaires</t>
   </si>
   <si>
@@ -245,6 +248,24 @@
   </si>
   <si>
     <t xml:space="preserve">Renommer les fichiers, ou modifier les balises en html pour qu’ils correspondent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images trop volumineuses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images sont trop lourdes, ce qui impacte les performances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redimensionner les images, et changer le format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier les éléments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format Webp : faut-il convertir toutes les images de votre site web ?</t>
   </si>
 </sst>
 </file>
@@ -317,7 +338,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +405,12 @@
         <bgColor rgb="FFDEDCE6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -426,7 +453,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -508,6 +535,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,7 +576,7 @@
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF7030A0"/>
       <rgbColor rgb="FFEEEEEE"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -561,7 +592,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -594,8 +625,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -755,66 +786,68 @@
       <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -822,24 +855,24 @@
         <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -849,22 +882,22 @@
     </row>
     <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -872,13 +905,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>21</v>
@@ -887,16 +920,16 @@
     </row>
     <row r="15" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>21</v>
@@ -905,16 +938,16 @@
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>21</v>
@@ -923,7 +956,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -933,257 +966,269 @@
     </row>
     <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="F19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+    <row r="21" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2151,6 +2196,7 @@
     <hyperlink ref="F10" r:id="rId7" display="Font size guidelines for responsive websites"/>
     <hyperlink ref="F11" r:id="rId8" display="Définition SEO de Balise Meta Keywords"/>
     <hyperlink ref="F13" r:id="rId9" display="Contrast Checker"/>
+    <hyperlink ref="F21" r:id="rId10" display="Format Webp : faut-il convertir toutes les images de votre site web ?"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
